--- a/Desafio Reclame Aqui/2- Execution/Cadastro.xlsx
+++ b/Desafio Reclame Aqui/2- Execution/Cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Desafio Reclame Aqui\2- Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB925BE-DAD5-4B6D-B14F-697BD001B71A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E99B10-CB61-4232-90FC-0C8514FA655C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,14 +105,14 @@
     <t>Evidência</t>
   </si>
   <si>
-    <t>20210504_120704.mp4</t>
+    <t>Bug_Cadastro.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,14 +152,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -403,11 +395,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,24 +429,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,54 +483,35 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -809,7 +808,7 @@
   <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,21 +837,21 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -864,21 +863,21 @@
       <c r="G3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -888,15 +887,15 @@
         <v>13</v>
       </c>
       <c r="G4" s="27"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -906,15 +905,15 @@
         <v>13</v>
       </c>
       <c r="G5" s="27"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -924,15 +923,15 @@
         <v>13</v>
       </c>
       <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -942,15 +941,15 @@
         <v>13</v>
       </c>
       <c r="G7" s="27"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -960,15 +959,15 @@
         <v>13</v>
       </c>
       <c r="G8" s="28"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="2:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -1076,10 +1075,7 @@
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="N3:P8" r:id="rId1" display="20210504_120704.mp4" xr:uid="{9D771E8B-CB54-40E5-BE34-208B5220891D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>